--- a/medicine/Enfance/Pingouin_et_Goéland_et_leurs_500_petits/Pingouin_et_Goéland_et_leurs_500_petits.xlsx
+++ b/medicine/Enfance/Pingouin_et_Goéland_et_leurs_500_petits/Pingouin_et_Goéland_et_leurs_500_petits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pingouin_et_Go%C3%A9land_et_leurs_500_petits</t>
+          <t>Pingouin_et_Goéland_et_leurs_500_petits</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pingouin et Goéland et leurs 500 petits est un film français réalisé par Michel Leclerc, sorti en 2020.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pingouin_et_Go%C3%A9land_et_leurs_500_petits</t>
+          <t>Pingouin_et_Goéland_et_leurs_500_petits</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un couple, Roger et Yvonne Hagnauer, surnommés Pingouin et Goéland, dirige la Maison d'enfants de Sèvres. Pendant la Seconde Guerre mondiale, ils y cachent des enfants juifs, puis après la guerre, ils accueillent des enfants de déportés (dont la mère du réalisateur).
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pingouin_et_Go%C3%A9land_et_leurs_500_petits</t>
+          <t>Pingouin_et_Goéland_et_leurs_500_petits</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Titre : Pingouin et Goéland et leurs 500 petits
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pingouin_et_Go%C3%A9land_et_leurs_500_petits</t>
+          <t>Pingouin_et_Goéland_et_leurs_500_petits</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,9 +603,11 @@
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Murielle Joudet pour Le Monde écrit : « On pourrait accuser Leclerc d'omettre l'essentiel pour donner à son film les apparences d'un conte féerique. C'est que son geste est motivé par une exigence qui se révèle doucement et excède la simple restitution d'une parenthèse enchantée »[1]. Luc Chessel pour Libération évoque un film qui donne « une idée généreuse de ce lieu expérimental et égalitaire »[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Murielle Joudet pour Le Monde écrit : « On pourrait accuser Leclerc d'omettre l'essentiel pour donner à son film les apparences d'un conte féerique. C'est que son geste est motivé par une exigence qui se révèle doucement et excède la simple restitution d'une parenthèse enchantée ». Luc Chessel pour Libération évoque un film qui donne « une idée généreuse de ce lieu expérimental et égalitaire ».
 </t>
         </is>
       </c>
